--- a/config/CANBusData(saved201022).xlsx
+++ b/config/CANBusData(saved201022).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/dbgt63_durham_ac_uk/Documents/DUEM/CANStreamTranslator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/dbgt63_durham_ac_uk/Documents/DUEM/DUSC22GIT/CANTranslator/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{15CA4D5F-EAA1-4D44-B8B7-14E77A692290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF1EA1BC-8924-44A0-82FD-647C96987CF7}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{15CA4D5F-EAA1-4D44-B8B7-14E77A692290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A2B8924-7A3F-46A1-9F15-B0207C581429}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{26B1AE09-9001-5E40-B3F1-E0A864A81904}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="230">
   <si>
     <t>CAN_ID</t>
   </si>
@@ -835,6 +835,27 @@
   </si>
   <si>
     <t>Source and name were same for 2 records and were causing errors</t>
+  </si>
+  <si>
+    <t>Version Check</t>
+  </si>
+  <si>
+    <t>System status</t>
+  </si>
+  <si>
+    <t>Driver Controls</t>
+  </si>
+  <si>
+    <t>System status?</t>
+  </si>
+  <si>
+    <t>0x500</t>
+  </si>
+  <si>
+    <t>0x110</t>
+  </si>
+  <si>
+    <t>Suggested format for custom CAN code</t>
   </si>
 </sst>
 </file>
@@ -1481,11 +1502,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7006E8D-471C-FD46-A1D1-22F26DACF42F}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3147,6 +3168,55 @@
       <c r="Q31" s="3">
         <f>IF(ISBLANK(D31),"",G31/D31)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/config/CANBusData(saved201022).xlsx
+++ b/config/CANBusData(saved201022).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/dbgt63_durham_ac_uk/Documents/DUEM/DUSC22GIT/CANTranslator/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{15CA4D5F-EAA1-4D44-B8B7-14E77A692290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A2B8924-7A3F-46A1-9F15-B0207C581429}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{15CA4D5F-EAA1-4D44-B8B7-14E77A692290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26FAFE61-0271-410C-BC3B-6FEC76F28CB1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{26B1AE09-9001-5E40-B3F1-E0A864A81904}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="231">
   <si>
     <t>CAN_ID</t>
   </si>
@@ -856,6 +856,9 @@
   </si>
   <si>
     <t>Suggested format for custom CAN code</t>
+  </si>
+  <si>
+    <t>2*float32 just placeholder type for testing. Needs to be changed</t>
   </si>
 </sst>
 </file>
@@ -1502,11 +1505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7006E8D-471C-FD46-A1D1-22F26DACF42F}">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1532,7 +1535,7 @@
     <col min="20" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -1645,7 +1648,7 @@
       </c>
       <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>178</v>
       </c>
@@ -1686,11 +1689,17 @@
       <c r="O3" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="R3" s="12" t="s">
+        <v>120</v>
+      </c>
       <c r="S3" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>220</v>
       </c>
@@ -1738,7 +1747,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>221</v>
       </c>
@@ -1786,7 +1795,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -1845,7 +1854,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
@@ -1904,7 +1913,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
@@ -1963,7 +1972,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
@@ -2022,7 +2031,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
@@ -2081,7 +2090,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
@@ -2140,7 +2149,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
@@ -2199,7 +2208,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -2258,7 +2267,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -2317,7 +2326,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -2376,7 +2385,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>

--- a/config/CANBusData(saved201022).xlsx
+++ b/config/CANBusData(saved201022).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/dbgt63_durham_ac_uk/Documents/DUEM/DUSC22GIT/CANTranslator/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoo\Documents\DUEM22GIT\CANTranslator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{15CA4D5F-EAA1-4D44-B8B7-14E77A692290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26FAFE61-0271-410C-BC3B-6FEC76F28CB1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22DFEE0-3636-4D11-AF57-C603814AD350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{26B1AE09-9001-5E40-B3F1-E0A864A81904}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="233">
   <si>
     <t>CAN_ID</t>
   </si>
@@ -859,6 +859,12 @@
   </si>
   <si>
     <t>2*float32 just placeholder type for testing. Needs to be changed</t>
+  </si>
+  <si>
+    <t>Identification info</t>
+  </si>
+  <si>
+    <t>5*u_int8</t>
   </si>
 </sst>
 </file>
@@ -1505,11 +1511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7006E8D-471C-FD46-A1D1-22F26DACF42F}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
+      <selection pane="bottomLeft" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1690,7 +1696,7 @@
         <v>179</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>213</v>
@@ -3226,6 +3232,28 @@
       </c>
       <c r="E37" s="1" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
